--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s1_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2405.405937614101</v>
+        <v>1839.060030442771</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007000207901000977</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.80268090175315</v>
+        <v>25.81760345874363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.43795062810938</v>
+        <v>13.44641299045078</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.29120734045781</v>
+        <v>10.68883997447806</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1904.16</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.59</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -631,53 +631,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -788,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -835,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -890,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -951,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>25.31430901573738</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.85301921757264</v>
+        <v>16.55358700954922</v>
       </c>
     </row>
     <row r="5">
@@ -967,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.98279108423719</v>
+        <v>18.1553984840992</v>
       </c>
     </row>
     <row r="6">
@@ -983,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>5.206834251576655</v>
       </c>
     </row>
     <row r="8">
@@ -991,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1013,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1093,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1101,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1118,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1132,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1146,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1157,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1171,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1185,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1199,13 +1155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1213,15 +1169,43 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1324,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>202.7749999999994</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -1335,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>200.3399999999994</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9">
@@ -1346,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>190.4649999999994</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10">
@@ -1357,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>194.6849999999994</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11">
@@ -1368,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>194.0299999999994</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -1379,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>107.5750000000002</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1390,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>98.90000000000001</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -1401,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>102.7750000000002</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -1412,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>109.9900000000002</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
@@ -1423,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>108.0950000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -1434,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.05499999999913</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
@@ -1445,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>83.09999999999999</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
@@ -1456,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>68</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
@@ -1467,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>76.23999999999913</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -1478,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>77.71999999999913</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>63.13500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1500,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>60.36500000000051</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1511,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>61.40500000000051</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
@@ -1522,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.17500000000051</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1533,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>62.26000000000051</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -1544,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>196.5900000000005</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1555,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.6200000000006</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -1566,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>187.4400000000006</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30">
@@ -1577,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>199.6150000000006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -1588,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>201.5200000000006</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1599,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>196.5900000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1610,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>184.6200000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1621,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>187.4400000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1632,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>199.6150000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1643,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>201.5200000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1654,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.7749999999994</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38">
@@ -1665,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>200.3399999999994</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39">
@@ -1676,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>190.4649999999994</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40">
@@ -1687,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>194.6849999999994</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41">
@@ -1698,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>194.0299999999994</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>96.59000000000054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1756,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>84.62000000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1767,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>87.44000000000057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1778,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>99.61500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1789,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>101.5200000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1800,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>102.7749999999994</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
@@ -1811,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>100.3399999999994</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -1822,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>90.46499999999941</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
@@ -1833,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>94.68499999999943</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1844,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>94.0299999999994</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1902,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1913,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1924,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1935,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1946,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.605</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1957,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1968,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1979,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>5.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1990,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.43</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2001,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4.015</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2012,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2023,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2034,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2045,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2056,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>12.755</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2067,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>15.325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -2078,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>18.795</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>16.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
@@ -2100,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -2111,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>12.71</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -2122,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>10.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -2133,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>13.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
@@ -2144,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2276,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2287,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2295,10 +2279,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2306,10 +2290,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2317,10 +2301,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2328,10 +2312,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2339,12 +2323,23 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
